--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어_유의어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어_유의어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,14 +847,110 @@
           <t>informal : 허물없는, 형식을 따지지 않는, 비공식의</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20230107</t>
-        </is>
+      <c r="D17" t="n">
+        <v>20230107</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>23시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>forbear</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">provoke </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>put up with : 참다, 견디다</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>make shift with</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">distrust </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>make do with : 임시 변통하다</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>slacken</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lossen : 완화하다, 완화되다</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>let up</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">make do with </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lossen : 완화하다, 완화되다</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20230108</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
         </is>
       </c>
     </row>
